--- a/DataSource/Matrix/price.xlsx
+++ b/DataSource/Matrix/price.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/Matrix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="20460" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="price.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="price" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="price" localSheetId="0">price!$A$1:$CO$105</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -18,328 +29,123 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="price" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/Matrix/price.csv" space="1" consecutive="1">
+      <textFields count="93">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cityId</t>
+  </si>
   <si>
     <t>goodsId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>小麦</t>
-  </si>
-  <si>
-    <t>水稻</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>大豆</t>
-  </si>
-  <si>
-    <t>马铃薯</t>
-  </si>
-  <si>
-    <t>鱼</t>
-  </si>
-  <si>
-    <t>牛肉</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>奶酪</t>
-  </si>
-  <si>
-    <t>番茄</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>糖</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>橄榄油</t>
-  </si>
-  <si>
-    <t>椰子油</t>
-  </si>
-  <si>
-    <t>生姜</t>
-  </si>
-  <si>
-    <t>荔枝</t>
-  </si>
-  <si>
-    <t>榛果</t>
-  </si>
-  <si>
-    <t>葡萄干</t>
-  </si>
-  <si>
-    <t>胡椒</t>
-  </si>
-  <si>
-    <t>丁香</t>
-  </si>
-  <si>
-    <t>豆蔻</t>
-  </si>
-  <si>
-    <t>肉桂</t>
-  </si>
-  <si>
-    <t>番红花</t>
-  </si>
-  <si>
-    <t>香草</t>
-  </si>
-  <si>
-    <t>辣椒</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>茶叶</t>
-  </si>
-  <si>
-    <t>可可豆</t>
-  </si>
-  <si>
-    <t>烟草</t>
-  </si>
-  <si>
-    <t>葡萄酒</t>
-  </si>
-  <si>
-    <t>白兰地</t>
-  </si>
-  <si>
-    <t>朗姆酒</t>
-  </si>
-  <si>
-    <t>清酒</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>白银</t>
-  </si>
-  <si>
-    <t>白金</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>陶瓷</t>
-  </si>
-  <si>
-    <t>漆器</t>
-  </si>
-  <si>
-    <t>象牙工艺</t>
-  </si>
-  <si>
-    <t>黄金工艺</t>
-  </si>
-  <si>
-    <t>羊毛</t>
-  </si>
-  <si>
-    <t>棉花</t>
-  </si>
-  <si>
-    <t>亚麻</t>
-  </si>
-  <si>
-    <t>棉织品</t>
-  </si>
-  <si>
-    <t>甜椒</t>
-  </si>
-  <si>
-    <t>罗望子</t>
-  </si>
-  <si>
-    <t>丝绸</t>
-  </si>
-  <si>
-    <t>毛织品</t>
-  </si>
-  <si>
-    <t>丝织品</t>
-  </si>
-  <si>
-    <t>麻织品</t>
-  </si>
-  <si>
-    <t>绒织品</t>
-  </si>
-  <si>
-    <t>纱布</t>
-  </si>
-  <si>
-    <t>天鹅绒</t>
-  </si>
-  <si>
-    <t>古董品</t>
-  </si>
-  <si>
-    <t>毛皮</t>
-  </si>
-  <si>
-    <t>绘画</t>
-  </si>
-  <si>
-    <t>雕刻</t>
-  </si>
-  <si>
-    <t>麝香</t>
-  </si>
-  <si>
-    <t>乳香</t>
-  </si>
-  <si>
-    <t>龙延香</t>
-  </si>
-  <si>
-    <t>白檀</t>
-  </si>
-  <si>
-    <t>翡翠</t>
-  </si>
-  <si>
-    <t>象牙</t>
-  </si>
-  <si>
-    <t>珊瑚</t>
-  </si>
-  <si>
-    <t>玳瑁甲</t>
-  </si>
-  <si>
-    <t>琥珀</t>
-  </si>
-  <si>
-    <t>水晶</t>
-  </si>
-  <si>
-    <t>软玉</t>
-  </si>
-  <si>
-    <t>珍珠</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>蓝宝石</t>
-  </si>
-  <si>
-    <t>祖母绿</t>
-  </si>
-  <si>
-    <t>红宝石</t>
-  </si>
-  <si>
-    <t>天青石</t>
-  </si>
-  <si>
-    <t>犀牛角</t>
-  </si>
-  <si>
-    <t>人参</t>
-  </si>
-  <si>
-    <t>奎宁</t>
-  </si>
-  <si>
-    <t>杏仁</t>
-  </si>
-  <si>
-    <t>冬虫夏草</t>
-  </si>
-  <si>
-    <t>缪金</t>
-  </si>
-  <si>
-    <t>靛蓝</t>
-  </si>
-  <si>
-    <t>胭脂红</t>
-  </si>
-  <si>
-    <t>槟榔</t>
-  </si>
-  <si>
-    <t>大黄</t>
-  </si>
-  <si>
-    <t>山竹果</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>大炮</t>
-  </si>
-  <si>
-    <t>刀剑</t>
-  </si>
-  <si>
-    <t>甲胄</t>
-  </si>
-  <si>
-    <t>铁矿石</t>
-  </si>
-  <si>
-    <t>铜矿石</t>
-  </si>
-  <si>
-    <t>锡矿</t>
-  </si>
-  <si>
-    <t>硝石</t>
-  </si>
-  <si>
-    <t>硫磺</t>
-  </si>
-  <si>
-    <t>煤</t>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>皮草</t>
-  </si>
-  <si>
-    <t>蜡</t>
-  </si>
-  <si>
-    <t>鸟粪石</t>
-  </si>
-  <si>
-    <t>糖胶</t>
-  </si>
-  <si>
-    <t>cityId</t>
+    <t>int</t>
   </si>
   <si>
     <t>杭州</t>
@@ -614,12 +420,321 @@
   <si>
     <t>里加</t>
   </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>水稻</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>马铃薯</t>
+  </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>橄榄油</t>
+  </si>
+  <si>
+    <t>椰子油</t>
+  </si>
+  <si>
+    <t>生姜</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>榛果</t>
+  </si>
+  <si>
+    <t>葡萄干</t>
+  </si>
+  <si>
+    <t>胡椒</t>
+  </si>
+  <si>
+    <t>丁香</t>
+  </si>
+  <si>
+    <t>豆蔻</t>
+  </si>
+  <si>
+    <t>肉桂</t>
+  </si>
+  <si>
+    <t>甜椒</t>
+  </si>
+  <si>
+    <t>罗望子</t>
+  </si>
+  <si>
+    <t>番红花</t>
+  </si>
+  <si>
+    <t>香草</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>茶叶</t>
+  </si>
+  <si>
+    <t>可可豆</t>
+  </si>
+  <si>
+    <t>烟草</t>
+  </si>
+  <si>
+    <t>葡萄酒</t>
+  </si>
+  <si>
+    <t>白兰地</t>
+  </si>
+  <si>
+    <t>朗姆酒</t>
+  </si>
+  <si>
+    <t>清酒</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>白金</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>陶瓷</t>
+  </si>
+  <si>
+    <t>漆器</t>
+  </si>
+  <si>
+    <t>象牙工艺</t>
+  </si>
+  <si>
+    <t>黄金工艺</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>丝绸</t>
+  </si>
+  <si>
+    <t>亚麻</t>
+  </si>
+  <si>
+    <t>毛织品</t>
+  </si>
+  <si>
+    <t>棉织品</t>
+  </si>
+  <si>
+    <t>丝织品</t>
+  </si>
+  <si>
+    <t>麻织品</t>
+  </si>
+  <si>
+    <t>绒织品</t>
+  </si>
+  <si>
+    <t>纱布</t>
+  </si>
+  <si>
+    <t>天鹅绒</t>
+  </si>
+  <si>
+    <t>古董品</t>
+  </si>
+  <si>
+    <t>毛皮</t>
+  </si>
+  <si>
+    <t>绘画</t>
+  </si>
+  <si>
+    <t>雕刻</t>
+  </si>
+  <si>
+    <t>麝香</t>
+  </si>
+  <si>
+    <t>乳香</t>
+  </si>
+  <si>
+    <t>龙延香</t>
+  </si>
+  <si>
+    <t>白檀</t>
+  </si>
+  <si>
+    <t>翡翠</t>
+  </si>
+  <si>
+    <t>象牙</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>玳瑁甲</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>软玉</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>祖母绿</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>天青石</t>
+  </si>
+  <si>
+    <t>犀牛角</t>
+  </si>
+  <si>
+    <t>人参</t>
+  </si>
+  <si>
+    <t>奎宁</t>
+  </si>
+  <si>
+    <t>杏仁</t>
+  </si>
+  <si>
+    <t>冬虫夏草</t>
+  </si>
+  <si>
+    <t>缪金</t>
+  </si>
+  <si>
+    <t>靛蓝</t>
+  </si>
+  <si>
+    <t>胭脂红</t>
+  </si>
+  <si>
+    <t>槟榔</t>
+  </si>
+  <si>
+    <t>大黄</t>
+  </si>
+  <si>
+    <t>山竹果</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>大炮</t>
+  </si>
+  <si>
+    <t>刀剑</t>
+  </si>
+  <si>
+    <t>甲胄</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>铜矿石</t>
+  </si>
+  <si>
+    <t>锡矿</t>
+  </si>
+  <si>
+    <t>硝石</t>
+  </si>
+  <si>
+    <t>硫磺</t>
+  </si>
+  <si>
+    <t>煤</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>皮草</t>
+  </si>
+  <si>
+    <t>蜡</t>
+  </si>
+  <si>
+    <t>糖胶</t>
+  </si>
+  <si>
+    <t>鸟粪石</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,42 +742,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -674,117 +760,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="price" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,44 +794,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -865,12 +861,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -909,201 +905,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1112,593 +1049,649 @@
   <dimension ref="A1:CO105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="71" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>197</v>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <v>39</v>
+      </c>
+      <c r="AP1">
+        <v>40</v>
+      </c>
+      <c r="AQ1">
+        <v>41</v>
+      </c>
+      <c r="AR1">
+        <v>42</v>
+      </c>
+      <c r="AS1">
+        <v>43</v>
+      </c>
+      <c r="AT1">
+        <v>44</v>
+      </c>
+      <c r="AU1">
+        <v>45</v>
+      </c>
+      <c r="AV1">
+        <v>46</v>
+      </c>
+      <c r="AW1">
+        <v>47</v>
+      </c>
+      <c r="AX1">
+        <v>48</v>
+      </c>
+      <c r="AY1">
+        <v>49</v>
+      </c>
+      <c r="AZ1">
+        <v>50</v>
+      </c>
+      <c r="BA1">
+        <v>51</v>
+      </c>
+      <c r="BB1">
+        <v>52</v>
+      </c>
+      <c r="BC1">
+        <v>53</v>
+      </c>
+      <c r="BD1">
+        <v>54</v>
+      </c>
+      <c r="BE1">
+        <v>55</v>
+      </c>
+      <c r="BF1">
+        <v>56</v>
+      </c>
+      <c r="BG1">
+        <v>57</v>
+      </c>
+      <c r="BH1">
+        <v>58</v>
+      </c>
+      <c r="BI1">
+        <v>59</v>
+      </c>
+      <c r="BJ1">
+        <v>60</v>
+      </c>
+      <c r="BK1">
+        <v>61</v>
+      </c>
+      <c r="BL1">
+        <v>62</v>
+      </c>
+      <c r="BM1">
+        <v>63</v>
+      </c>
+      <c r="BN1">
+        <v>64</v>
+      </c>
+      <c r="BO1">
+        <v>65</v>
+      </c>
+      <c r="BP1">
+        <v>66</v>
+      </c>
+      <c r="BQ1">
+        <v>67</v>
+      </c>
+      <c r="BR1">
+        <v>68</v>
+      </c>
+      <c r="BS1">
+        <v>69</v>
+      </c>
+      <c r="BT1">
+        <v>70</v>
+      </c>
+      <c r="BU1">
+        <v>71</v>
+      </c>
+      <c r="BV1">
+        <v>72</v>
+      </c>
+      <c r="BW1">
+        <v>73</v>
+      </c>
+      <c r="BX1">
+        <v>74</v>
+      </c>
+      <c r="BY1">
+        <v>75</v>
+      </c>
+      <c r="BZ1">
+        <v>76</v>
+      </c>
+      <c r="CA1">
+        <v>77</v>
+      </c>
+      <c r="CB1">
+        <v>78</v>
+      </c>
+      <c r="CC1">
+        <v>79</v>
+      </c>
+      <c r="CD1">
+        <v>80</v>
+      </c>
+      <c r="CE1">
+        <v>81</v>
+      </c>
+      <c r="CF1">
+        <v>82</v>
+      </c>
+      <c r="CG1">
+        <v>83</v>
+      </c>
+      <c r="CH1">
+        <v>84</v>
+      </c>
+      <c r="CI1">
+        <v>85</v>
+      </c>
+      <c r="CJ1">
+        <v>86</v>
+      </c>
+      <c r="CK1">
+        <v>87</v>
+      </c>
+      <c r="CL1">
+        <v>88</v>
+      </c>
+      <c r="CM1">
+        <v>89</v>
+      </c>
+      <c r="CN1">
+        <v>90</v>
+      </c>
+      <c r="CO1">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
-      <c r="T2">
-        <v>18</v>
-      </c>
-      <c r="U2">
-        <v>19</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2">
-        <v>21</v>
-      </c>
-      <c r="X2">
-        <v>22</v>
-      </c>
-      <c r="Y2">
-        <v>23</v>
-      </c>
-      <c r="Z2">
-        <v>24</v>
-      </c>
-      <c r="AA2">
-        <v>25</v>
-      </c>
-      <c r="AB2">
-        <v>26</v>
-      </c>
-      <c r="AC2">
-        <v>27</v>
-      </c>
-      <c r="AD2">
-        <v>28</v>
-      </c>
-      <c r="AE2">
-        <v>29</v>
-      </c>
-      <c r="AF2">
-        <v>30</v>
-      </c>
-      <c r="AG2">
-        <v>31</v>
-      </c>
-      <c r="AH2">
-        <v>32</v>
-      </c>
-      <c r="AI2">
-        <v>33</v>
-      </c>
-      <c r="AJ2">
-        <v>34</v>
-      </c>
-      <c r="AK2">
-        <v>35</v>
-      </c>
-      <c r="AL2">
-        <v>36</v>
-      </c>
-      <c r="AM2">
-        <v>37</v>
-      </c>
-      <c r="AN2">
-        <v>38</v>
-      </c>
-      <c r="AO2">
-        <v>39</v>
-      </c>
-      <c r="AP2">
-        <v>40</v>
-      </c>
-      <c r="AQ2">
-        <v>41</v>
-      </c>
-      <c r="AR2">
-        <v>42</v>
-      </c>
-      <c r="AS2">
-        <v>43</v>
-      </c>
-      <c r="AT2">
-        <v>44</v>
-      </c>
-      <c r="AU2">
-        <v>45</v>
-      </c>
-      <c r="AV2">
-        <v>46</v>
-      </c>
-      <c r="AW2">
-        <v>47</v>
-      </c>
-      <c r="AX2">
-        <v>48</v>
-      </c>
-      <c r="AY2">
-        <v>49</v>
-      </c>
-      <c r="AZ2">
-        <v>50</v>
-      </c>
-      <c r="BA2">
-        <v>51</v>
-      </c>
-      <c r="BB2">
-        <v>52</v>
-      </c>
-      <c r="BC2">
-        <v>53</v>
-      </c>
-      <c r="BD2">
-        <v>54</v>
-      </c>
-      <c r="BE2">
-        <v>55</v>
-      </c>
-      <c r="BF2">
-        <v>56</v>
-      </c>
-      <c r="BG2">
-        <v>57</v>
-      </c>
-      <c r="BH2">
-        <v>58</v>
-      </c>
-      <c r="BI2">
-        <v>59</v>
-      </c>
-      <c r="BJ2">
-        <v>60</v>
-      </c>
-      <c r="BK2">
-        <v>61</v>
-      </c>
-      <c r="BL2">
-        <v>62</v>
-      </c>
-      <c r="BM2">
-        <v>63</v>
-      </c>
-      <c r="BN2">
-        <v>64</v>
-      </c>
-      <c r="BO2">
-        <v>65</v>
-      </c>
-      <c r="BP2">
-        <v>66</v>
-      </c>
-      <c r="BQ2">
-        <v>67</v>
-      </c>
-      <c r="BR2">
-        <v>68</v>
-      </c>
-      <c r="BS2">
-        <v>69</v>
-      </c>
-      <c r="BT2">
-        <v>70</v>
-      </c>
-      <c r="BU2">
-        <v>71</v>
-      </c>
-      <c r="BV2">
-        <v>72</v>
-      </c>
-      <c r="BW2">
-        <v>73</v>
-      </c>
-      <c r="BX2">
-        <v>74</v>
-      </c>
-      <c r="BY2">
-        <v>75</v>
-      </c>
-      <c r="BZ2">
-        <v>76</v>
-      </c>
-      <c r="CA2">
-        <v>77</v>
-      </c>
-      <c r="CB2">
-        <v>78</v>
-      </c>
-      <c r="CC2">
-        <v>79</v>
-      </c>
-      <c r="CD2">
-        <v>80</v>
-      </c>
-      <c r="CE2">
-        <v>81</v>
-      </c>
-      <c r="CF2">
-        <v>82</v>
-      </c>
-      <c r="CG2">
-        <v>83</v>
-      </c>
-      <c r="CH2">
-        <v>84</v>
-      </c>
-      <c r="CI2">
-        <v>85</v>
-      </c>
-      <c r="CJ2">
-        <v>86</v>
-      </c>
-      <c r="CK2">
-        <v>87</v>
-      </c>
-      <c r="CL2">
-        <v>88</v>
-      </c>
-      <c r="CM2">
-        <v>89</v>
-      </c>
-      <c r="CN2">
-        <v>90</v>
-      </c>
-      <c r="CO2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
         <v>1600</v>
       </c>
       <c r="D3">
         <v>1600</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1700</v>
       </c>
       <c r="F3">
@@ -1966,20 +1959,20 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
         <v>920</v>
       </c>
       <c r="D4">
         <v>920</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>850</v>
       </c>
       <c r="F4">
@@ -2247,20 +2240,20 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5">
         <v>1980</v>
       </c>
       <c r="D5">
         <v>1980</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>2000</v>
       </c>
       <c r="F5">
@@ -2528,20 +2521,20 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:93">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
         <v>1800</v>
       </c>
       <c r="D6">
         <v>1800</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1650</v>
       </c>
       <c r="F6">
@@ -2809,20 +2802,20 @@
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:93">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
         <v>910</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1000</v>
       </c>
       <c r="F7">
@@ -3090,20 +3083,20 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
         <v>1100</v>
       </c>
       <c r="D8">
         <v>1100</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8">
@@ -3371,14 +3364,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
         <v>1550</v>
       </c>
       <c r="D9">
@@ -3652,14 +3645,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:93">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10">
         <v>1300</v>
       </c>
       <c r="D10">
@@ -3933,14 +3926,14 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:93">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11">
         <v>1400</v>
       </c>
       <c r="D11">
@@ -4214,14 +4207,14 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:93">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12">
         <v>1400</v>
       </c>
       <c r="D12">
@@ -4495,14 +4488,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="13" spans="1:93">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
         <v>1200</v>
       </c>
       <c r="D13">
@@ -4776,14 +4769,14 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:93">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14">
         <v>3050</v>
       </c>
       <c r="D14">
@@ -5057,14 +5050,14 @@
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="1:93">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15">
         <v>3100</v>
       </c>
       <c r="D15">
@@ -5338,14 +5331,14 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:93">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16">
         <v>1380</v>
       </c>
       <c r="D16">
@@ -5619,14 +5612,14 @@
         <v>970</v>
       </c>
     </row>
-    <row r="17" spans="1:93">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17">
         <v>1200</v>
       </c>
       <c r="D17">
@@ -5900,14 +5893,14 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="18" spans="1:93">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18">
         <v>800</v>
       </c>
       <c r="D18">
@@ -6181,14 +6174,14 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="19" spans="1:93">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19">
         <v>1800</v>
       </c>
       <c r="D19">
@@ -6462,14 +6455,14 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="20" spans="1:93">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20">
         <v>900</v>
       </c>
       <c r="D20">
@@ -6743,14 +6736,14 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="21" spans="1:93">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21">
         <v>800</v>
       </c>
       <c r="D21">
@@ -7024,14 +7017,14 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="22" spans="1:93">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22">
         <v>720</v>
       </c>
       <c r="D22">
@@ -7305,14 +7298,14 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="23" spans="1:93">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23">
         <v>1355</v>
       </c>
       <c r="D23">
@@ -7586,14 +7579,14 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="24" spans="1:93">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="C24" s="2">
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
         <v>1550</v>
       </c>
       <c r="D24">
@@ -7867,18 +7860,17 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="25" spans="1:93">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
         <v>1400</v>
       </c>
       <c r="D25">
-        <f>1620/1.2</f>
         <v>1350</v>
       </c>
       <c r="E25">
@@ -8149,18 +8141,17 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="26" spans="1:93">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26">
         <v>1450</v>
       </c>
       <c r="D26">
-        <f>1740/1.2</f>
         <v>1450</v>
       </c>
       <c r="E26">
@@ -8431,14 +8422,14 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="27" spans="1:93">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27">
         <v>3300</v>
       </c>
       <c r="D27">
@@ -8712,18 +8703,17 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="28" spans="1:93">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28">
         <v>1750</v>
       </c>
       <c r="D28">
-        <f>2040/1.2</f>
         <v>1700</v>
       </c>
       <c r="E28">
@@ -8994,18 +8984,17 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="29" spans="1:93">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29">
         <v>3500</v>
       </c>
       <c r="D29">
-        <f>3984/1.2</f>
         <v>3320</v>
       </c>
       <c r="E29">
@@ -9276,18 +9265,17 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="1:93">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30">
         <v>1450</v>
       </c>
       <c r="D30">
-        <f>1740/1.2</f>
         <v>1450</v>
       </c>
       <c r="E30">
@@ -9558,14 +9546,14 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="31" spans="1:93">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31">
         <v>1500</v>
       </c>
       <c r="D31">
@@ -9839,14 +9827,14 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="32" spans="1:93">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32">
         <v>1700</v>
       </c>
       <c r="D32">
@@ -10120,14 +10108,14 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="33" spans="1:93">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33">
         <v>1800</v>
       </c>
       <c r="D33">
@@ -10401,14 +10389,14 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="34" spans="1:93">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34">
         <v>4260</v>
       </c>
       <c r="D34">
@@ -10682,14 +10670,14 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="35" spans="1:93">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35">
         <v>3750</v>
       </c>
       <c r="D35">
@@ -10963,14 +10951,14 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="36" spans="1:93">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36">
         <v>1580</v>
       </c>
       <c r="D36">
@@ -11244,14 +11232,14 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="37" spans="1:93">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37">
         <v>2100</v>
       </c>
       <c r="D37">
@@ -11525,14 +11513,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:93">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38">
         <v>2000</v>
       </c>
       <c r="D38">
@@ -11806,14 +11794,14 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="39" spans="1:93">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39">
         <v>1600</v>
       </c>
       <c r="D39">
@@ -12087,14 +12075,14 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="40" spans="1:93">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40">
         <v>9000</v>
       </c>
       <c r="D40">
@@ -12368,14 +12356,14 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="41" spans="1:93">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41">
         <v>3400</v>
       </c>
       <c r="D41">
@@ -12649,14 +12637,14 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="42" spans="1:93">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42">
         <v>9500</v>
       </c>
       <c r="D42">
@@ -12930,14 +12918,14 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="43" spans="1:93">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43">
         <v>2100</v>
       </c>
       <c r="D43">
@@ -13211,14 +13199,14 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="44" spans="1:93">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44">
         <v>2150</v>
       </c>
       <c r="D44">
@@ -13492,14 +13480,14 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="45" spans="1:93">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45">
         <v>2200</v>
       </c>
       <c r="D45">
@@ -13773,14 +13761,14 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="46" spans="1:93">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46">
         <v>2250</v>
       </c>
       <c r="D46">
@@ -14054,14 +14042,14 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="47" spans="1:93">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47">
         <v>2300</v>
       </c>
       <c r="D47">
@@ -14335,14 +14323,14 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="48" spans="1:93">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48">
         <v>2350</v>
       </c>
       <c r="D48">
@@ -14616,14 +14604,14 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="49" spans="1:93">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49">
         <v>2400</v>
       </c>
       <c r="D49">
@@ -14897,14 +14885,14 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="50" spans="1:93">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="C50" s="2">
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50">
         <v>2450</v>
       </c>
       <c r="D50">
@@ -15178,14 +15166,14 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="51" spans="1:93">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="C51" s="2">
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51">
         <v>2500</v>
       </c>
       <c r="D51">
@@ -15459,14 +15447,14 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="52" spans="1:93">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52">
         <v>2550</v>
       </c>
       <c r="D52">
@@ -15740,14 +15728,14 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="53" spans="1:93">
-      <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="C53" s="2">
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53">
         <v>2600</v>
       </c>
       <c r="D53">
@@ -16021,14 +16009,14 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="54" spans="1:93">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="C54" s="2">
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54">
         <v>2650</v>
       </c>
       <c r="D54">
@@ -16302,14 +16290,14 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="55" spans="1:93">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="C55" s="2">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55">
         <v>2700</v>
       </c>
       <c r="D55">
@@ -16583,14 +16571,14 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="56" spans="1:93">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="C56" s="2">
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56">
         <v>2750</v>
       </c>
       <c r="D56">
@@ -16864,14 +16852,14 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="57" spans="1:93">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="C57" s="2">
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57">
         <v>2800</v>
       </c>
       <c r="D57">
@@ -17145,14 +17133,14 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="58" spans="1:93">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="C58" s="2">
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58">
         <v>2850</v>
       </c>
       <c r="D58">
@@ -17426,14 +17414,14 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="59" spans="1:93">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="C59" s="2">
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59">
         <v>4450</v>
       </c>
       <c r="D59">
@@ -17707,14 +17695,14 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="60" spans="1:93">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="C60" s="2">
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60">
         <v>2550</v>
       </c>
       <c r="D60">
@@ -17988,14 +17976,14 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="61" spans="1:93">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="C61" s="2">
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61">
         <v>2650</v>
       </c>
       <c r="D61">
@@ -18269,14 +18257,14 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="62" spans="1:93">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="C62" s="2">
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62">
         <v>3700</v>
       </c>
       <c r="D62">
@@ -18550,14 +18538,14 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="63" spans="1:93">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="C63" s="2">
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63">
         <v>1320</v>
       </c>
       <c r="D63">
@@ -18831,14 +18819,14 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="64" spans="1:93">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="C64" s="2">
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64">
         <v>3750</v>
       </c>
       <c r="D64">
@@ -19112,14 +19100,14 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="65" spans="1:93">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="C65" s="2">
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65">
         <v>2400</v>
       </c>
       <c r="D65">
@@ -19393,14 +19381,14 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="66" spans="1:93">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="C66" s="2">
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66">
         <v>2200</v>
       </c>
       <c r="D66">
@@ -19674,14 +19662,14 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="67" spans="1:93">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="C67" s="2">
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67">
         <v>3650</v>
       </c>
       <c r="D67">
@@ -19955,14 +19943,14 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="68" spans="1:93">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="C68" s="2">
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68">
         <v>4050</v>
       </c>
       <c r="D68">
@@ -20236,14 +20224,14 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="69" spans="1:93">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="C69" s="2">
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69">
         <v>2150</v>
       </c>
       <c r="D69">
@@ -20517,14 +20505,14 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="70" spans="1:93">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
+    <row r="70" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="C70" s="2">
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70">
         <v>2820</v>
       </c>
       <c r="D70">
@@ -20798,14 +20786,14 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="71" spans="1:93">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
+    <row r="71" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="C71" s="2">
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71">
         <v>3450</v>
       </c>
       <c r="D71">
@@ -21079,14 +21067,14 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="72" spans="1:93">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
+    <row r="72" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="C72" s="2">
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72">
         <v>2750</v>
       </c>
       <c r="D72">
@@ -21360,14 +21348,14 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="73" spans="1:93">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="C73" s="2">
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73">
         <v>3600</v>
       </c>
       <c r="D73">
@@ -21641,14 +21629,14 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="74" spans="1:93">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
+    <row r="74" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="C74" s="2">
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74">
         <v>3400</v>
       </c>
       <c r="D74">
@@ -21922,14 +21910,14 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="75" spans="1:93">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
+    <row r="75" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="C75" s="2">
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75">
         <v>8900</v>
       </c>
       <c r="D75">
@@ -22203,14 +22191,14 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="76" spans="1:93">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
+    <row r="76" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="C76" s="2">
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76">
         <v>7100</v>
       </c>
       <c r="D76">
@@ -22484,14 +22472,14 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="77" spans="1:93">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="C77" s="2">
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77">
         <v>7900</v>
       </c>
       <c r="D77">
@@ -22765,14 +22753,14 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="78" spans="1:93">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="C78" s="2">
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78">
         <v>7000</v>
       </c>
       <c r="D78">
@@ -23046,14 +23034,14 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="79" spans="1:93">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
+    <row r="79" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="C79" s="2">
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79">
         <v>2700</v>
       </c>
       <c r="D79">
@@ -23327,14 +23315,14 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="80" spans="1:93">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="C80" s="2">
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80">
         <v>5700</v>
       </c>
       <c r="D80">
@@ -23608,14 +23596,14 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="81" spans="1:93">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="C81" s="2">
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81">
         <v>4000</v>
       </c>
       <c r="D81">
@@ -23889,14 +23877,14 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="82" spans="1:93">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="C82" s="2">
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82">
         <v>1900</v>
       </c>
       <c r="D82">
@@ -24170,14 +24158,14 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="83" spans="1:93">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="C83" s="2">
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83">
         <v>3520</v>
       </c>
       <c r="D83">
@@ -24451,14 +24439,14 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="84" spans="1:93">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="C84" s="2">
+      <c r="B84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84">
         <v>2760</v>
       </c>
       <c r="D84">
@@ -24732,14 +24720,14 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="85" spans="1:93">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="C85" s="2">
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85">
         <v>1400</v>
       </c>
       <c r="D85">
@@ -25013,14 +25001,14 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="86" spans="1:93">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="C86" s="2">
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86">
         <v>1900</v>
       </c>
       <c r="D86">
@@ -25294,14 +25282,14 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="87" spans="1:93">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="C87" s="2">
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87">
         <v>3150</v>
       </c>
       <c r="D87">
@@ -25575,14 +25563,14 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="88" spans="1:93">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="C88" s="2">
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88">
         <v>1250</v>
       </c>
       <c r="D88">
@@ -25856,14 +25844,14 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="89" spans="1:93">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="C89" s="2">
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
         <v>1500</v>
       </c>
       <c r="D89">
@@ -26137,14 +26125,14 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="90" spans="1:93">
-      <c r="A90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="C90" s="2">
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90">
         <v>1250</v>
       </c>
       <c r="D90">
@@ -26418,14 +26406,14 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="91" spans="1:93">
-      <c r="A91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="C91" s="2">
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91">
         <v>5350</v>
       </c>
       <c r="D91">
@@ -26699,14 +26687,14 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="92" spans="1:93">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="C92" s="2">
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92">
         <v>8600</v>
       </c>
       <c r="D92">
@@ -26980,14 +26968,14 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="93" spans="1:93">
-      <c r="A93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="C93" s="2">
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93">
         <v>2900</v>
       </c>
       <c r="D93">
@@ -27261,14 +27249,14 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="94" spans="1:93">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="C94" s="2">
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94">
         <v>2900</v>
       </c>
       <c r="D94">
@@ -27542,14 +27530,14 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="95" spans="1:93">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="C95" s="2">
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95">
         <v>1750</v>
       </c>
       <c r="D95">
@@ -27823,14 +27811,14 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="96" spans="1:93">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="C96" s="2">
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96">
         <v>2200</v>
       </c>
       <c r="D96">
@@ -28104,14 +28092,14 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="97" spans="1:93">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="C97" s="2">
+      <c r="B97" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97">
         <v>1600</v>
       </c>
       <c r="D97">
@@ -28385,14 +28373,14 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="98" spans="1:93">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="C98" s="2">
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98">
         <v>2350</v>
       </c>
       <c r="D98">
@@ -28666,14 +28654,14 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="99" spans="1:93">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="C99" s="2">
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99">
         <v>2700</v>
       </c>
       <c r="D99">
@@ -28947,14 +28935,14 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="100" spans="1:93">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="C100" s="2">
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100">
         <v>2850</v>
       </c>
       <c r="D100">
@@ -29228,14 +29216,14 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="101" spans="1:93">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="C101" s="2">
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101">
         <v>1350</v>
       </c>
       <c r="D101">
@@ -29509,14 +29497,14 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="102" spans="1:93">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="C102" s="2">
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102">
         <v>1700</v>
       </c>
       <c r="D102">
@@ -29790,14 +29778,14 @@
         <v>5270</v>
       </c>
     </row>
-    <row r="103" spans="1:93">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="C103" s="2">
+      <c r="B103" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103">
         <v>3150</v>
       </c>
       <c r="D103">
@@ -30071,14 +30059,14 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="104" spans="1:93">
-      <c r="A104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="C104" s="2">
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104">
         <v>750</v>
       </c>
       <c r="D104">
@@ -30352,14 +30340,14 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="105" spans="1:93">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="C105" s="2">
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105">
         <v>3200</v>
       </c>
       <c r="D105">
@@ -30634,12 +30622,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>